--- a/AccApi/Paint Works -External-Comparison.xlsx
+++ b/AccApi/Paint Works -External-Comparison.xlsx
@@ -5,14 +5,14 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Recap" sheetId="1" r:id="rId1"/>
+    <sheet name="BOQ Comparison" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Résumé des Offres/Feuille de Comparaison</t>
   </si>
@@ -29,16 +29,13 @@
     <t>ACC budget</t>
   </si>
   <si>
-    <t>ACC budget breakdown</t>
-  </si>
-  <si>
-    <t>Rainbo-UK 20/10/21 12:00:00 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crown UK  10/09/21 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>Scil Benin 04/02/21 12:00:00 AM</t>
+    <t>Scil Benin 27/05/2022</t>
+  </si>
+  <si>
+    <t>Rainbo-UK 27/05/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crown UK  27/05/2022</t>
   </si>
   <si>
     <t>No</t>
@@ -47,22 +44,160 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Workmanship</t>
-  </si>
-  <si>
-    <t>Burau (POUR 9 IMMEUBLES DE BUREAUX)</t>
-  </si>
-  <si>
-    <t/>
+    <t>U.</t>
+  </si>
+  <si>
+    <t>Qty Total</t>
+  </si>
+  <si>
+    <t>P.U.</t>
+  </si>
+  <si>
+    <t>P.T.</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.38</t>
+  </si>
+  <si>
+    <t>- Ond + TGO</t>
+  </si>
+  <si>
+    <t>m²</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.39</t>
+  </si>
+  <si>
+    <t>- R.G.I</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.40</t>
+  </si>
+  <si>
+    <t>- TGBT</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.41</t>
+  </si>
+  <si>
+    <t>- Escalier A</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.42</t>
+  </si>
+  <si>
+    <t>- Escalier B</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.43</t>
+  </si>
+  <si>
+    <t>- Escalier C</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.2.85</t>
+  </si>
+  <si>
+    <t>- Escalier A (dégagement + sous-face volet)</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.2.86</t>
+  </si>
+  <si>
+    <t>- Escalier B (dégagement + sous-face volet)</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.2.87</t>
+  </si>
+  <si>
+    <t>- Escalier C (dégagement + sous-face volet)</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.2.89</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.2.90</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.2.91</t>
+  </si>
+  <si>
+    <t>Commercial Conditions</t>
+  </si>
+  <si>
+    <t>Advance payment</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>Compliance</t>
+  </si>
+  <si>
+    <t>Alternative</t>
+  </si>
+  <si>
+    <t>Complying</t>
+  </si>
+  <si>
+    <t>Expected number of containers 40'HC</t>
+  </si>
+  <si>
+    <t>11 Trucks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information about the availability and / or time for fabrication </t>
+  </si>
+  <si>
+    <t>12-14 working weeks</t>
+  </si>
+  <si>
+    <t>60 working days</t>
+  </si>
+  <si>
+    <t>L/C required</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Abidjan manufacture</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remaining payment </t>
+  </si>
+  <si>
+    <t>80% (L/C)</t>
+  </si>
+  <si>
+    <t>Upon delivery</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Supply</t>
+  </si>
+  <si>
+    <t>Type of offer</t>
+  </si>
+  <si>
+    <t>EXW</t>
+  </si>
+  <si>
+    <t>EXW Castalla</t>
   </si>
 </sst>
 </file>
@@ -103,12 +238,23 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1"/>
+    <xf numFmtId="0" fontId="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -120,17 +266,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:AX31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1" style="2"/>
-    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="2" max="2" width="70" customWidth="1" style="2"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1" style="2"/>
-    <col min="8" max="8" width="9.140625" customWidth="1" style="2"/>
     <col min="9" max="9" width="9.140625" customWidth="1" style="2"/>
+    <col min="11" max="11" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -152,65 +298,625 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AX5" s="1"/>
     </row>
     <row r="6">
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="3" t="s">
+    </row>
+    <row r="7" s="4" customFormat="1">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="G7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX7" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="0">
-        <v>6631826.04</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2285.06985</v>
-      </c>
-      <c r="H8" s="2">
-        <v>4611.1275000000005</v>
-      </c>
-      <c r="I8" s="2">
-        <v>4764.641820872298</v>
+      <c r="C9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="0">
+        <v>100.35</v>
+      </c>
+      <c r="E9" s="0">
+        <v>3236</v>
+      </c>
+      <c r="F9" s="0">
+        <v>324732.6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>7866.12</v>
+      </c>
+      <c r="H9" s="0">
+        <v>789365.142</v>
+      </c>
+      <c r="I9" s="2">
+        <v>7210.61</v>
+      </c>
+      <c r="J9" s="0">
+        <v>723584.7135</v>
+      </c>
+      <c r="K9" s="2">
+        <v>6555.1</v>
+      </c>
+      <c r="L9" s="0">
+        <v>657804.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="0">
+        <v>144.63</v>
+      </c>
+      <c r="E10" s="0">
+        <v>3236</v>
+      </c>
+      <c r="F10" s="0">
+        <v>468022.68</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1966.53</v>
+      </c>
+      <c r="H10" s="0">
+        <v>284419.2339</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1311.02</v>
+      </c>
+      <c r="J10" s="0">
+        <v>189612.82259999998</v>
+      </c>
+      <c r="K10" s="2">
+        <v>33</v>
+      </c>
+      <c r="L10" s="0">
+        <v>4772.79</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="0">
+        <v>96.66</v>
+      </c>
+      <c r="E11" s="0">
+        <v>3236</v>
+      </c>
+      <c r="F11" s="0">
+        <v>312791.76</v>
+      </c>
+      <c r="G11" s="2">
+        <v>15076.73</v>
+      </c>
+      <c r="H11" s="0">
+        <v>1457316.7218</v>
+      </c>
+      <c r="I11" s="2">
+        <v>14421.22</v>
+      </c>
+      <c r="J11" s="0">
+        <v>1393955.1252</v>
+      </c>
+      <c r="K11" s="2">
+        <v>13110.2</v>
+      </c>
+      <c r="L11" s="0">
+        <v>1267231.932</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="0">
+        <v>539.82</v>
+      </c>
+      <c r="E12" s="0">
+        <v>3236</v>
+      </c>
+      <c r="F12" s="0">
+        <v>1746857.5200000003</v>
+      </c>
+      <c r="G12" s="2">
+        <v>32775.5</v>
+      </c>
+      <c r="H12" s="0">
+        <v>17692870.41</v>
+      </c>
+      <c r="I12" s="2">
+        <v>33431.01</v>
+      </c>
+      <c r="J12" s="0">
+        <v>18046727.818200003</v>
+      </c>
+      <c r="K12" s="2">
+        <v>32775.5</v>
+      </c>
+      <c r="L12" s="0">
+        <v>17692870.41</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="0">
+        <v>587.79</v>
+      </c>
+      <c r="E13" s="0">
+        <v>3236</v>
+      </c>
+      <c r="F13" s="0">
+        <v>1902088.44</v>
+      </c>
+      <c r="G13" s="2">
+        <v>14421.22</v>
+      </c>
+      <c r="H13" s="0">
+        <v>8476648.9038</v>
+      </c>
+      <c r="I13" s="2">
+        <v>19009.79</v>
+      </c>
+      <c r="J13" s="0">
+        <v>11173764.4641</v>
+      </c>
+      <c r="K13" s="2">
+        <v>19665.3</v>
+      </c>
+      <c r="L13" s="0">
+        <v>11559066.686999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="0">
+        <v>580.14</v>
+      </c>
+      <c r="E14" s="0">
+        <v>3236</v>
+      </c>
+      <c r="F14" s="0">
+        <v>1877333.04</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1311.02</v>
+      </c>
+      <c r="H14" s="0">
+        <v>760575.1427999999</v>
+      </c>
+      <c r="I14" s="2">
+        <v>655.51</v>
+      </c>
+      <c r="J14" s="0">
+        <v>380287.57139999996</v>
+      </c>
+      <c r="K14" s="2">
+        <v>327.755</v>
+      </c>
+      <c r="L14" s="0">
+        <v>190143.78569999998</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="0">
+        <v>253.62</v>
+      </c>
+      <c r="E15" s="0">
+        <v>3236</v>
+      </c>
+      <c r="F15" s="0">
+        <v>820714.3200000001</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1966.53</v>
+      </c>
+      <c r="H15" s="0">
+        <v>498751.3386</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1311.02</v>
+      </c>
+      <c r="J15" s="0">
+        <v>332500.8924</v>
+      </c>
+      <c r="K15" s="2">
+        <v>3933.06</v>
+      </c>
+      <c r="L15" s="0">
+        <v>997502.6772</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="0">
+        <v>273.42</v>
+      </c>
+      <c r="E16" s="0">
+        <v>3236</v>
+      </c>
+      <c r="F16" s="0">
+        <v>884787.12</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1311.02</v>
+      </c>
+      <c r="H16" s="0">
+        <v>358459.0884</v>
+      </c>
+      <c r="I16" s="2">
+        <v>655.51</v>
+      </c>
+      <c r="J16" s="0">
+        <v>179229.5442</v>
+      </c>
+      <c r="K16" s="2">
+        <v>196.653</v>
+      </c>
+      <c r="L16" s="0">
+        <v>53768.86326</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="0">
+        <v>268.56</v>
+      </c>
+      <c r="E17" s="0">
+        <v>3236</v>
+      </c>
+      <c r="F17" s="0">
+        <v>869060.16</v>
+      </c>
+      <c r="G17" s="2">
+        <v>655.51</v>
+      </c>
+      <c r="H17" s="0">
+        <v>176043.7656</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1311.02</v>
+      </c>
+      <c r="J17" s="0">
+        <v>352087.5312</v>
+      </c>
+      <c r="K17" s="2">
+        <v>65.551</v>
+      </c>
+      <c r="L17" s="0">
+        <v>17604.37656</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="0">
+        <v>228.6</v>
+      </c>
+      <c r="E18" s="0">
+        <v>3236</v>
+      </c>
+      <c r="F18" s="0">
+        <v>739749.6</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1311.02</v>
+      </c>
+      <c r="H18" s="0">
+        <v>299699.17199999996</v>
+      </c>
+      <c r="I18" s="2">
+        <v>655.51</v>
+      </c>
+      <c r="J18" s="0">
+        <v>149849.58599999998</v>
+      </c>
+      <c r="K18" s="2">
+        <v>21</v>
+      </c>
+      <c r="L18" s="0">
+        <v>4800.599999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="0">
+        <v>253.89</v>
+      </c>
+      <c r="E19" s="0">
+        <v>3236</v>
+      </c>
+      <c r="F19" s="0">
+        <v>821588.0399999999</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1966.53</v>
+      </c>
+      <c r="H19" s="0">
+        <v>499282.30169999995</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1311.02</v>
+      </c>
+      <c r="J19" s="0">
+        <v>332854.86779999995</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1311.02</v>
+      </c>
+      <c r="L19" s="0">
+        <v>332854.86779999995</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="0">
+        <v>249.12</v>
+      </c>
+      <c r="E20" s="0">
+        <v>3236</v>
+      </c>
+      <c r="F20" s="0">
+        <v>806152.3200000001</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5244.08</v>
+      </c>
+      <c r="H20" s="0">
+        <v>1306405.2096</v>
+      </c>
+      <c r="I20" s="2">
+        <v>5899.59</v>
+      </c>
+      <c r="J20" s="0">
+        <v>1469705.8608000001</v>
+      </c>
+      <c r="K20" s="2">
+        <v>5244.08</v>
+      </c>
+      <c r="L20" s="0">
+        <v>1306405.2096</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -221,6 +927,10 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="C22"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>

--- a/AccApi/Paint Works -External-Comparison.xlsx
+++ b/AccApi/Paint Works -External-Comparison.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Résumé des Offres/Feuille de Comparaison</t>
   </si>
@@ -29,13 +29,13 @@
     <t>ACC budget</t>
   </si>
   <si>
-    <t>Scil Benin 27/05/2022</t>
-  </si>
-  <si>
-    <t>Rainbo-UK 27/05/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crown UK  27/05/2022</t>
+    <t>Rainbo-UK 04/10/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crown UK  10/09/2021</t>
+  </si>
+  <si>
+    <t>Scil Benin 04/02/2021</t>
   </si>
   <si>
     <t>No</t>
@@ -95,6 +95,66 @@
     <t>- Escalier C</t>
   </si>
   <si>
+    <t>BUR-11.3.1.3.127</t>
+  </si>
+  <si>
+    <t>- RDC</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.3.128</t>
+  </si>
+  <si>
+    <t>- R+1</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.3.129</t>
+  </si>
+  <si>
+    <t>- R+2</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.3.130</t>
+  </si>
+  <si>
+    <t>- R+3</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.3.131</t>
+  </si>
+  <si>
+    <t>- R+4</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.3.132</t>
+  </si>
+  <si>
+    <t>- R+5</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.3.114</t>
+  </si>
+  <si>
+    <t>- Circulations, bureaux, attente, accueil, copie</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.3.116</t>
+  </si>
+  <si>
+    <t>- Circulations, bureaux, attente,</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.3.118</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.3.120</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.3.122</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.3.124</t>
+  </si>
+  <si>
     <t>BUR-11.3.1.2.85</t>
   </si>
   <si>
@@ -137,12 +197,12 @@
     <t>Compliance</t>
   </si>
   <si>
+    <t>Complying</t>
+  </si>
+  <si>
     <t>Alternative</t>
   </si>
   <si>
-    <t>Complying</t>
-  </si>
-  <si>
     <t>Expected number of containers 40'HC</t>
   </si>
   <si>
@@ -158,24 +218,6 @@
     <t>60 working days</t>
   </si>
   <si>
-    <t>L/C required</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Origin</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Abidjan manufacture</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
     <t xml:space="preserve">Remaining payment </t>
   </si>
   <si>
@@ -191,13 +233,43 @@
     <t>Supply</t>
   </si>
   <si>
-    <t>Type of offer</t>
-  </si>
-  <si>
-    <t>EXW</t>
-  </si>
-  <si>
-    <t>EXW Castalla</t>
+    <t>Technical Conditions</t>
+  </si>
+  <si>
+    <t>Paint External- TC1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Paint External- TC2</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Paint External- TC3</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Paint External- TC4</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.8</t>
   </si>
 </sst>
 </file>
@@ -266,7 +338,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A2:AX31"/>
+  <dimension ref="A2:AX46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -373,22 +445,22 @@
         <v>324732.6</v>
       </c>
       <c r="G9" s="2">
-        <v>7866.12</v>
+        <v>705.13305</v>
       </c>
       <c r="H9" s="0">
-        <v>789365.142</v>
+        <v>70760.1015675</v>
       </c>
       <c r="I9" s="2">
-        <v>7210.61</v>
+        <v>1248.75</v>
       </c>
       <c r="J9" s="0">
-        <v>723584.7135</v>
+        <v>125312.0625</v>
       </c>
       <c r="K9" s="2">
-        <v>6555.1</v>
+        <v>1290.323564857897</v>
       </c>
       <c r="L9" s="0">
-        <v>657804.285</v>
+        <v>129483.96973348997</v>
       </c>
     </row>
     <row r="10">
@@ -411,22 +483,22 @@
         <v>468022.68</v>
       </c>
       <c r="G10" s="2">
-        <v>1966.53</v>
+        <v>705.13305</v>
       </c>
       <c r="H10" s="0">
-        <v>284419.2339</v>
+        <v>101983.3930215</v>
       </c>
       <c r="I10" s="2">
-        <v>1311.02</v>
+        <v>1248.75</v>
       </c>
       <c r="J10" s="0">
-        <v>189612.82259999998</v>
+        <v>180606.7125</v>
       </c>
       <c r="K10" s="2">
-        <v>33</v>
+        <v>1290.323564857897</v>
       </c>
       <c r="L10" s="0">
-        <v>4772.79</v>
+        <v>186619.49718539763</v>
       </c>
     </row>
     <row r="11">
@@ -449,22 +521,22 @@
         <v>312791.76</v>
       </c>
       <c r="G11" s="2">
-        <v>15076.73</v>
+        <v>705.13305</v>
       </c>
       <c r="H11" s="0">
-        <v>1457316.7218</v>
+        <v>68158.160613</v>
       </c>
       <c r="I11" s="2">
-        <v>14421.22</v>
+        <v>1248.75</v>
       </c>
       <c r="J11" s="0">
-        <v>1393955.1252</v>
+        <v>120704.175</v>
       </c>
       <c r="K11" s="2">
-        <v>13110.2</v>
+        <v>1290.323564857897</v>
       </c>
       <c r="L11" s="0">
-        <v>1267231.932</v>
+        <v>124722.67577916432</v>
       </c>
     </row>
     <row r="12">
@@ -487,22 +559,22 @@
         <v>1746857.5200000003</v>
       </c>
       <c r="G12" s="2">
-        <v>32775.5</v>
+        <v>705.13305</v>
       </c>
       <c r="H12" s="0">
-        <v>17692870.41</v>
+        <v>380644.92305100005</v>
       </c>
       <c r="I12" s="2">
-        <v>33431.01</v>
+        <v>1248.75</v>
       </c>
       <c r="J12" s="0">
-        <v>18046727.818200003</v>
+        <v>674100.2250000001</v>
       </c>
       <c r="K12" s="2">
-        <v>32775.5</v>
+        <v>1290.323564857897</v>
       </c>
       <c r="L12" s="0">
-        <v>17692870.41</v>
+        <v>696542.46678159</v>
       </c>
     </row>
     <row r="13">
@@ -525,22 +597,22 @@
         <v>1902088.44</v>
       </c>
       <c r="G13" s="2">
-        <v>14421.22</v>
+        <v>705.13305</v>
       </c>
       <c r="H13" s="0">
-        <v>8476648.9038</v>
+        <v>414470.1554595</v>
       </c>
       <c r="I13" s="2">
-        <v>19009.79</v>
+        <v>1248.75</v>
       </c>
       <c r="J13" s="0">
-        <v>11173764.4641</v>
+        <v>734002.7625</v>
       </c>
       <c r="K13" s="2">
-        <v>19665.3</v>
+        <v>1290.323564857897</v>
       </c>
       <c r="L13" s="0">
-        <v>11559066.686999999</v>
+        <v>758439.2881878233</v>
       </c>
     </row>
     <row r="14">
@@ -563,22 +635,22 @@
         <v>1877333.04</v>
       </c>
       <c r="G14" s="2">
-        <v>1311.02</v>
+        <v>705.13305</v>
       </c>
       <c r="H14" s="0">
-        <v>760575.1427999999</v>
+        <v>409075.887627</v>
       </c>
       <c r="I14" s="2">
-        <v>655.51</v>
+        <v>1248.75</v>
       </c>
       <c r="J14" s="0">
-        <v>380287.57139999996</v>
+        <v>724449.825</v>
       </c>
       <c r="K14" s="2">
-        <v>327.755</v>
+        <v>1290.323564857897</v>
       </c>
       <c r="L14" s="0">
-        <v>190143.78569999998</v>
+        <v>748568.3129166603</v>
       </c>
     </row>
     <row r="15">
@@ -592,31 +664,31 @@
         <v>16</v>
       </c>
       <c r="D15" s="0">
-        <v>253.62</v>
+        <v>5617.44</v>
       </c>
       <c r="E15" s="0">
-        <v>3236</v>
+        <v>6402.97</v>
       </c>
       <c r="F15" s="0">
-        <v>820714.3200000001</v>
+        <v>35968299.7968</v>
       </c>
       <c r="G15" s="2">
-        <v>1966.53</v>
+        <v>1439.2259999999999</v>
       </c>
       <c r="H15" s="0">
-        <v>498751.3386</v>
+        <v>8084765.701439999</v>
       </c>
       <c r="I15" s="2">
-        <v>1311.02</v>
+        <v>1665</v>
       </c>
       <c r="J15" s="0">
-        <v>332500.8924</v>
+        <v>9353037.6</v>
       </c>
       <c r="K15" s="2">
-        <v>3933.06</v>
+        <v>2540.0070174368047</v>
       </c>
       <c r="L15" s="0">
-        <v>997502.6772</v>
+        <v>14268337.020030204</v>
       </c>
     </row>
     <row r="16">
@@ -630,31 +702,31 @@
         <v>16</v>
       </c>
       <c r="D16" s="0">
-        <v>273.42</v>
+        <v>5770.71</v>
       </c>
       <c r="E16" s="0">
-        <v>3236</v>
+        <v>6402.97</v>
       </c>
       <c r="F16" s="0">
-        <v>884787.12</v>
+        <v>36949683.0087</v>
       </c>
       <c r="G16" s="2">
-        <v>1311.02</v>
+        <v>1439.2259999999999</v>
       </c>
       <c r="H16" s="0">
-        <v>358459.0884</v>
+        <v>8305355.870459999</v>
       </c>
       <c r="I16" s="2">
-        <v>655.51</v>
+        <v>1665</v>
       </c>
       <c r="J16" s="0">
-        <v>179229.5442</v>
+        <v>9608232.15</v>
       </c>
       <c r="K16" s="2">
-        <v>196.653</v>
+        <v>2540.0070174368047</v>
       </c>
       <c r="L16" s="0">
-        <v>53768.86326</v>
+        <v>14657643.895592744</v>
       </c>
     </row>
     <row r="17">
@@ -668,31 +740,31 @@
         <v>16</v>
       </c>
       <c r="D17" s="0">
-        <v>268.56</v>
+        <v>7288.02</v>
       </c>
       <c r="E17" s="0">
-        <v>3236</v>
+        <v>6402.97</v>
       </c>
       <c r="F17" s="0">
-        <v>869060.16</v>
+        <v>46664973.41940001</v>
       </c>
       <c r="G17" s="2">
-        <v>655.51</v>
+        <v>1439.2259999999999</v>
       </c>
       <c r="H17" s="0">
-        <v>176043.7656</v>
+        <v>10489107.87252</v>
       </c>
       <c r="I17" s="2">
-        <v>1311.02</v>
+        <v>1665</v>
       </c>
       <c r="J17" s="0">
-        <v>352087.5312</v>
+        <v>12134553.3</v>
       </c>
       <c r="K17" s="2">
-        <v>65.551</v>
+        <v>2540.0070174368047</v>
       </c>
       <c r="L17" s="0">
-        <v>17604.37656</v>
+        <v>18511621.943219785</v>
       </c>
     </row>
     <row r="18">
@@ -700,223 +772,695 @@
         <v>33</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="0">
-        <v>228.6</v>
+        <v>5721.12</v>
       </c>
       <c r="E18" s="0">
-        <v>3236</v>
+        <v>6402.97</v>
       </c>
       <c r="F18" s="0">
-        <v>739749.6</v>
+        <v>36632159.7264</v>
       </c>
       <c r="G18" s="2">
-        <v>1311.02</v>
+        <v>1439.2259999999999</v>
       </c>
       <c r="H18" s="0">
-        <v>299699.17199999996</v>
+        <v>8233984.653119999</v>
       </c>
       <c r="I18" s="2">
-        <v>655.51</v>
+        <v>1665</v>
       </c>
       <c r="J18" s="0">
-        <v>149849.58599999998</v>
+        <v>9525664.8</v>
       </c>
       <c r="K18" s="2">
-        <v>21</v>
+        <v>2540.0070174368047</v>
       </c>
       <c r="L18" s="0">
-        <v>4800.599999999999</v>
+        <v>14531684.947598051</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="0">
-        <v>253.89</v>
+        <v>5770.71</v>
       </c>
       <c r="E19" s="0">
-        <v>3236</v>
+        <v>6402.97</v>
       </c>
       <c r="F19" s="0">
-        <v>821588.0399999999</v>
+        <v>36949683.0087</v>
       </c>
       <c r="G19" s="2">
-        <v>1966.53</v>
+        <v>1439.2259999999999</v>
       </c>
       <c r="H19" s="0">
-        <v>499282.30169999995</v>
+        <v>8305355.870459999</v>
       </c>
       <c r="I19" s="2">
-        <v>1311.02</v>
+        <v>1665</v>
       </c>
       <c r="J19" s="0">
-        <v>332854.86779999995</v>
+        <v>9608232.15</v>
       </c>
       <c r="K19" s="2">
-        <v>1311.02</v>
+        <v>2540.0070174368047</v>
       </c>
       <c r="L19" s="0">
-        <v>332854.86779999995</v>
+        <v>14657643.895592744</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="0">
-        <v>249.12</v>
+        <v>5781.51</v>
       </c>
       <c r="E20" s="0">
-        <v>3236</v>
+        <v>6402.97</v>
       </c>
       <c r="F20" s="0">
-        <v>806152.3200000001</v>
+        <v>37018835.0847</v>
       </c>
       <c r="G20" s="2">
-        <v>5244.08</v>
+        <v>1439.2259999999999</v>
       </c>
       <c r="H20" s="0">
-        <v>1306405.2096</v>
+        <v>8320899.51126</v>
       </c>
       <c r="I20" s="2">
-        <v>5899.59</v>
+        <v>1665</v>
       </c>
       <c r="J20" s="0">
-        <v>1469705.8608000001</v>
+        <v>9626214.15</v>
       </c>
       <c r="K20" s="2">
-        <v>5244.08</v>
+        <v>2540.0070174368047</v>
       </c>
       <c r="L20" s="0">
-        <v>1306405.2096</v>
+        <v>14685075.97138106</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="0">
+        <v>4714.2</v>
+      </c>
+      <c r="E21" s="0">
+        <v>6402.97</v>
+      </c>
+      <c r="F21" s="0">
+        <v>30184881.174</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1439.2704</v>
+      </c>
+      <c r="H21" s="0">
+        <v>6785008.51968</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1665</v>
+      </c>
+      <c r="J21" s="0">
+        <v>7849143</v>
+      </c>
+      <c r="K21" s="2">
+        <v>2540.0070174368047</v>
+      </c>
+      <c r="L21" s="0">
+        <v>11974101.081600584</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="s">
-        <v>36</v>
+      <c r="A22" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="0">
+        <v>4049.1</v>
+      </c>
+      <c r="E22" s="0">
+        <v>6402.97</v>
+      </c>
+      <c r="F22" s="0">
+        <v>25926265.827</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1439.2704</v>
+      </c>
+      <c r="H22" s="0">
+        <v>5827749.776640001</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1665</v>
+      </c>
+      <c r="J22" s="0">
+        <v>6741751.5</v>
+      </c>
+      <c r="K22" s="2">
+        <v>2540.0070174368047</v>
+      </c>
+      <c r="L22" s="0">
+        <v>10284742.414303366</v>
       </c>
     </row>
     <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="B23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="0">
+        <v>4312.62</v>
+      </c>
+      <c r="E23" s="0">
+        <v>6402.97</v>
+      </c>
+      <c r="F23" s="0">
+        <v>27613576.4814</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1439.2704</v>
+      </c>
+      <c r="H23" s="0">
+        <v>6207026.312448001</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1665</v>
+      </c>
+      <c r="J23" s="0">
+        <v>7180512.3</v>
+      </c>
+      <c r="K23" s="2">
+        <v>2540.0070174368047</v>
+      </c>
+      <c r="L23" s="0">
+        <v>10954085.063538313</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="B24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>41</v>
+      <c r="C24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="0">
+        <v>4346.19</v>
+      </c>
+      <c r="E24" s="0">
+        <v>6402.97</v>
+      </c>
+      <c r="F24" s="0">
+        <v>27828524.184299998</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1439.2704</v>
+      </c>
+      <c r="H24" s="0">
+        <v>6255342.619776</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1665</v>
+      </c>
+      <c r="J24" s="0">
+        <v>7236406.35</v>
+      </c>
+      <c r="K24" s="2">
+        <v>2540.0070174368047</v>
+      </c>
+      <c r="L24" s="0">
+        <v>11039353.099113666</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>45</v>
+      </c>
       <c r="B25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="0">
+        <v>4346.19</v>
+      </c>
+      <c r="E25" s="0">
+        <v>6402.97</v>
+      </c>
+      <c r="F25" s="0">
+        <v>27828524.184299998</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1439.2704</v>
+      </c>
+      <c r="H25" s="0">
+        <v>6255342.619776</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1665</v>
+      </c>
+      <c r="J25" s="0">
+        <v>7236406.35</v>
+      </c>
+      <c r="K25" s="2">
+        <v>2540.0070174368047</v>
+      </c>
+      <c r="L25" s="0">
+        <v>11039353.099113666</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>46</v>
+      </c>
       <c r="B26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="0">
+        <v>4312.62</v>
+      </c>
+      <c r="E26" s="0">
+        <v>6402.97</v>
+      </c>
+      <c r="F26" s="0">
+        <v>27613576.4814</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1439.2704</v>
+      </c>
+      <c r="H26" s="0">
+        <v>6207026.312448001</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1665</v>
+      </c>
+      <c r="J26" s="0">
+        <v>7180512.3</v>
+      </c>
+      <c r="K26" s="2">
+        <v>2540.0070174368047</v>
+      </c>
+      <c r="L26" s="0">
+        <v>10954085.063538313</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27">
       <c r="B27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="C27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="0">
+        <v>253.62</v>
+      </c>
+      <c r="E27" s="0">
+        <v>3236</v>
+      </c>
+      <c r="F27" s="0">
+        <v>820714.3200000001</v>
+      </c>
+      <c r="G27" s="2">
+        <v>705.13305</v>
+      </c>
+      <c r="H27" s="0">
+        <v>178835.844141</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1248.75</v>
+      </c>
+      <c r="J27" s="0">
+        <v>316707.975</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1290.323564857897</v>
+      </c>
+      <c r="L27" s="0">
+        <v>327251.86251925986</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28">
       <c r="B28" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="C28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="0">
+        <v>273.42</v>
+      </c>
+      <c r="E28" s="0">
+        <v>3236</v>
+      </c>
+      <c r="F28" s="0">
+        <v>884787.12</v>
+      </c>
+      <c r="G28" s="2">
+        <v>705.13305</v>
+      </c>
+      <c r="H28" s="0">
+        <v>192797.47853100003</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1248.75</v>
+      </c>
+      <c r="J28" s="0">
+        <v>341433.22500000003</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1290.323564857897</v>
+      </c>
+      <c r="L28" s="0">
+        <v>352800.2691034462</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="B29" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="C29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="0">
+        <v>268.56</v>
+      </c>
+      <c r="E29" s="0">
+        <v>3236</v>
+      </c>
+      <c r="F29" s="0">
+        <v>869060.16</v>
+      </c>
+      <c r="G29" s="2">
+        <v>705.13305</v>
+      </c>
+      <c r="H29" s="0">
+        <v>189370.531908</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1248.75</v>
+      </c>
+      <c r="J29" s="0">
+        <v>335364.3</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1290.323564857897</v>
+      </c>
+      <c r="L29" s="0">
+        <v>346529.29657823686</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="0">
+        <v>228.6</v>
+      </c>
+      <c r="E30" s="0">
+        <v>3236</v>
+      </c>
+      <c r="F30" s="0">
+        <v>739749.6</v>
+      </c>
+      <c r="G30" s="2">
+        <v>705.13305</v>
+      </c>
+      <c r="H30" s="0">
+        <v>161193.41523</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1248.75</v>
+      </c>
+      <c r="J30" s="0">
+        <v>285464.25</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1290.323564857897</v>
+      </c>
+      <c r="L30" s="0">
+        <v>294967.9669265153</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="B31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="0">
+        <v>253.89</v>
+      </c>
+      <c r="E31" s="0">
+        <v>3236</v>
+      </c>
+      <c r="F31" s="0">
+        <v>821588.0399999999</v>
+      </c>
+      <c r="G31" s="2">
+        <v>705.13305</v>
+      </c>
+      <c r="H31" s="0">
+        <v>179026.2300645</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1248.75</v>
+      </c>
+      <c r="J31" s="0">
+        <v>317045.1375</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1290.323564857897</v>
+      </c>
+      <c r="L31" s="0">
+        <v>327600.24988177145</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="B32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="0">
+        <v>249.12</v>
+      </c>
+      <c r="E32" s="0">
+        <v>3236</v>
+      </c>
+      <c r="F32" s="0">
+        <v>806152.3200000001</v>
+      </c>
+      <c r="G32" s="2">
+        <v>705.13305</v>
+      </c>
+      <c r="H32" s="0">
+        <v>175662.74541600002</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1248.75</v>
+      </c>
+      <c r="J32" s="0">
+        <v>311088.6</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1290.323564857897</v>
+      </c>
+      <c r="L32" s="0">
+        <v>321445.40647739935</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30">
-      <c r="B30" s="5" t="s">
+    <row r="35">
+      <c r="B35" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="5" t="s">
+      <c r="I35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="2" t="s">
+    </row>
+    <row r="36">
+      <c r="B36" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>60</v>
+      <c r="I36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -930,7 +1474,8 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="C22"/>
+    <mergeCell ref="C34"/>
+    <mergeCell ref="C42"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>

--- a/AccApi/Paint Works -External-Comparison.xlsx
+++ b/AccApi/Paint Works -External-Comparison.xlsx
@@ -298,16 +298,16 @@
         <v>15</v>
       </c>
       <c r="D8" s="0">
-        <v>191856585.871585</v>
+        <v>191925210.3448254</v>
       </c>
       <c r="G8" s="2">
-        <v>108601708.02291463</v>
+        <v>108640553.36654578</v>
       </c>
       <c r="H8" s="2">
-        <v>127468810.73477592</v>
+        <v>127514404.5826572</v>
       </c>
       <c r="I8" s="2">
-        <v>191856585.871585</v>
+        <v>191925210.3448254</v>
       </c>
     </row>
     <row r="10">
@@ -322,10 +322,10 @@
       <c r="G11" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="H11" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -336,10 +336,10 @@
       <c r="G12" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="I12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -350,10 +350,10 @@
       <c r="G13" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="H13" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="I13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -364,10 +364,10 @@
       <c r="G14" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="H14" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="I14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -378,10 +378,10 @@
       <c r="G15" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H15" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="I15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -392,10 +392,10 @@
       <c r="G16" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="H16" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="I16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="0" t="s">
         <v>32</v>
       </c>
     </row>
@@ -411,10 +411,10 @@
       <c r="G19" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="H19" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="0" t="s">
         <v>35</v>
       </c>
     </row>
@@ -425,10 +425,10 @@
       <c r="G20" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="H20" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="I20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="0" t="s">
         <v>39</v>
       </c>
     </row>
@@ -439,10 +439,10 @@
       <c r="G21" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="I21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="0" t="s">
         <v>41</v>
       </c>
     </row>
@@ -453,10 +453,10 @@
       <c r="G22" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="H22" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="I22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22" s="0" t="s">
         <v>36</v>
       </c>
     </row>

--- a/AccApi/Paint Works -External-Comparison.xlsx
+++ b/AccApi/Paint Works -External-Comparison.xlsx
@@ -5,17 +5,14 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Recap" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
-  <si>
-    <t>Résumé des Offres/Feuille de Comparaison</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Project:CITE MINISTERIELLE</t>
   </si>
@@ -29,37 +26,64 @@
     <t>ACC budget</t>
   </si>
   <si>
-    <t>ACC budget breakdown</t>
-  </si>
-  <si>
     <t>Rainbo-UK 04/10/2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Crown UK  10/09/2021</t>
-  </si>
-  <si>
-    <t>Scil Benin 04/02/2021</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Workmanship</t>
-  </si>
-  <si>
-    <t>Burau (POUR 9 IMMEUBLES DE BUREAUX)</t>
+    <t>U.</t>
+  </si>
+  <si>
+    <t>Qty Total</t>
+  </si>
+  <si>
+    <t>P.U.</t>
+  </si>
+  <si>
+    <t>P.T.</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.38</t>
+  </si>
+  <si>
+    <t>- Ond + TGO</t>
+  </si>
+  <si>
+    <t>m²</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.39</t>
+  </si>
+  <si>
+    <t>- R.G.I</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.40</t>
+  </si>
+  <si>
+    <t>- TGBT</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.41</t>
+  </si>
+  <si>
+    <t>- Escalier A</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.42</t>
+  </si>
+  <si>
+    <t>- Escalier B</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.1.43</t>
+  </si>
+  <si>
+    <t>- Escalier C</t>
   </si>
   <si>
     <t>Commercial Conditions</t>
@@ -71,42 +95,36 @@
     <t>20%</t>
   </si>
   <si>
-    <t>40%</t>
+    <t>Compliance</t>
+  </si>
+  <si>
+    <t>Complying</t>
+  </si>
+  <si>
+    <t>Expected number of containers 40'HC</t>
+  </si>
+  <si>
+    <t>11 Trucks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information about the availability and / or time for fabrication </t>
+  </si>
+  <si>
+    <t>12-14 working weeks</t>
+  </si>
+  <si>
+    <t>Material on site payment</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Compliance</t>
-  </si>
-  <si>
-    <t>Alternative</t>
-  </si>
-  <si>
-    <t>Expected number of containers 40'HC</t>
-  </si>
-  <si>
-    <t>11 Trucks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information about the availability and / or time for fabrication </t>
-  </si>
-  <si>
-    <t>12-14 working weeks</t>
-  </si>
-  <si>
-    <t>60 working days</t>
-  </si>
-  <si>
     <t xml:space="preserve">Remaining payment </t>
   </si>
   <si>
     <t>80% (L/C)</t>
   </si>
   <si>
-    <t>Upon delivery</t>
-  </si>
-  <si>
     <t>Scope</t>
   </si>
   <si>
@@ -122,31 +140,25 @@
     <t>ok</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Paint External- TC2</t>
   </si>
   <si>
-    <t>oui</t>
-  </si>
-  <si>
-    <t>Done</t>
+    <t>df</t>
   </si>
   <si>
     <t>Paint External- TC3</t>
   </si>
   <si>
-    <t>0.5</t>
+    <t>dfdf</t>
   </si>
   <si>
     <t>Paint External- TC4</t>
   </si>
   <si>
-    <t>70%</t>
-  </si>
-  <si>
-    <t>80%</t>
+    <t>test paint external</t>
+  </si>
+  <si>
+    <t>zcssddddddd</t>
   </si>
 </sst>
 </file>
@@ -187,6 +199,9 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1">
       <alignment horizontal="center"/>
     </xf>
@@ -194,7 +209,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -215,249 +230,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A2:AX22"/>
+  <dimension ref="A2:AX30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="70" customWidth="1" style="2"/>
+    <col min="2" max="2" width="70" customWidth="1" style="3"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1" style="2"/>
-    <col min="8" max="8" width="9.140625" customWidth="1" style="2"/>
-    <col min="9" max="9" width="9.140625" customWidth="1" style="2"/>
+    <col min="7" max="7" width="9.140625" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="AX5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="D6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="7" s="5" customFormat="1">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AX6" s="1"/>
-    </row>
-    <row r="7" s="4" customFormat="1">
-      <c r="A7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="G7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX7" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="C9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="D9" s="0">
+        <v>100.35</v>
+      </c>
+      <c r="E9" s="0">
+        <v>3236</v>
+      </c>
+      <c r="F9" s="0">
+        <v>324732.6</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7876.9710000000005</v>
+      </c>
+      <c r="H9" s="0">
+        <v>790454.0398500001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="AX7" s="1"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="0">
-        <v>191925210.3448254</v>
-      </c>
-      <c r="G8" s="2">
-        <v>108640553.36654578</v>
-      </c>
-      <c r="H8" s="2">
-        <v>127514404.5826572</v>
-      </c>
-      <c r="I8" s="2">
-        <v>191925210.3448254</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
+      <c r="C10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="0">
+        <v>144.63</v>
+      </c>
+      <c r="E10" s="0">
+        <v>3236</v>
+      </c>
+      <c r="F10" s="0">
+        <v>468022.68</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5907.72825</v>
+      </c>
+      <c r="H10" s="0">
+        <v>854434.7367974999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="C11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="0">
+        <v>96.66</v>
+      </c>
+      <c r="E11" s="0">
+        <v>3236</v>
+      </c>
+      <c r="F11" s="0">
+        <v>312791.76</v>
+      </c>
+      <c r="G11" s="3">
+        <v>13128.285</v>
+      </c>
+      <c r="H11" s="0">
+        <v>1268980.0281</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="C12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="0">
+        <v>539.82</v>
+      </c>
+      <c r="E12" s="0">
+        <v>3236</v>
+      </c>
+      <c r="F12" s="0">
+        <v>1746857.5200000003</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3282.07125</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1771727.7021750002</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="C13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="0">
+        <v>587.79</v>
+      </c>
+      <c r="E13" s="0">
+        <v>3236</v>
+      </c>
+      <c r="F13" s="0">
+        <v>1902088.44</v>
+      </c>
+      <c r="G13" s="3">
+        <v>100</v>
+      </c>
+      <c r="H13" s="0">
+        <v>58779</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="C14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="0">
+        <v>580.14</v>
+      </c>
+      <c r="E14" s="0">
+        <v>3236</v>
+      </c>
+      <c r="F14" s="0">
+        <v>1877333.04</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1969.2427500000001</v>
+      </c>
+      <c r="H14" s="0">
+        <v>1142436.488985</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="5" t="s">
+    </row>
+    <row r="17">
+      <c r="B17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="2" t="s">
+    </row>
+    <row r="18">
+      <c r="B18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="5" t="s">
+      <c r="G18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="2" t="s">
+    </row>
+    <row r="19">
+      <c r="B19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="G19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="5" t="s">
+    </row>
+    <row r="20">
+      <c r="B20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
+    </row>
+    <row r="21">
+      <c r="B21" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="5" t="s">
+      <c r="G21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="2" t="s">
+    </row>
+    <row r="22">
+      <c r="B22" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="G22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="5" t="s">
+    </row>
+    <row r="23">
+      <c r="B23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="2" t="s">
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="5" t="s">
+    <row r="26">
+      <c r="B26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="G26" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" s="5" t="s">
+    <row r="27">
+      <c r="B27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="2" t="s">
+    </row>
+    <row r="28">
+      <c r="B28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>36</v>
+      <c r="G28" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -468,8 +565,9 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C10"/>
-    <mergeCell ref="C18"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C16"/>
+    <mergeCell ref="C25"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>
